--- a/courbe.xlsx
+++ b/courbe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasse\Downloads\py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasse\Desktop\cours\4A\IA\POLYTECH-RESAUX-DE-NEURONES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01613B10-63F1-4E9F-96B4-873E092782A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8DDBEA-0E33-460C-828B-F3AB63EF1F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>σ</t>
   </si>
@@ -55,15 +55,69 @@
   <si>
     <t>taille et forme de la carte</t>
   </si>
+  <si>
+    <t>1x1</t>
+  </si>
+  <si>
+    <t>1x3</t>
+  </si>
+  <si>
+    <t>1x5</t>
+  </si>
+  <si>
+    <t>1x10</t>
+  </si>
+  <si>
+    <t>3x10</t>
+  </si>
+  <si>
+    <t>5x10</t>
+  </si>
+  <si>
+    <t>10x10</t>
+  </si>
+  <si>
+    <t>10x12</t>
+  </si>
+  <si>
+    <t>10x14</t>
+  </si>
+  <si>
+    <t>10x16</t>
+  </si>
+  <si>
+    <t>10x18</t>
+  </si>
+  <si>
+    <t>10x20</t>
+  </si>
+  <si>
+    <t>22x30</t>
+  </si>
+  <si>
+    <t>24x30</t>
+  </si>
+  <si>
+    <t>26x30</t>
+  </si>
+  <si>
+    <t>28x30</t>
+  </si>
+  <si>
+    <t>30x30</t>
+  </si>
+  <si>
+    <t>20x20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +133,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -88,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -100,6 +162,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -123,10 +198,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -135,13 +207,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -700,8 +775,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1548,8 +1624,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1689,6 +1766,1531 @@
         <c:crossAx val="1355152880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.964155857551768E-2"/>
+          <c:y val="0.15782407407407409"/>
+          <c:w val="0.83402142781279931"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="85000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>influence de N</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erreur de quantification vectorielle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$11:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$12:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.358245894574654</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36266288179193401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31359309850503297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28336962852257203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22137428613290899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15768035947044301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.101478492506121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4103107372958703E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4180275679213598E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5140520055540599E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0176012223308899E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9478491124269599E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.77499277715466E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0122619906068999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0630281992031398E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9492152782787799E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9406723799536101E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8521934336465099E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7269-480A-B9D3-F5A101F215C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dispertion des poids</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$11:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$13:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.50578766019541699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49890742864283699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49379311287175398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48131432680952502</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47704374264084898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52763263935586302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59577422798054003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71416051773008704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78250750115744605</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83307000820657995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86841469847769603</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87121576500210196</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88764925482276802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86244201889889904</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85139479671332596</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86514277902129799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.858080597660422</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.874661928932573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7269-480A-B9D3-F5A101F215C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1434296175"/>
+        <c:axId val="1434320175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1434296175"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>N</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1434320175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1434320175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="window" lastClr="FFFFFF">
+                        <a:lumMod val="75000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>EQV et Dispertion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1434296175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>influence de la taille et de la forme de l'image</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erreur de quantification vectorielle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$15:$S$15</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1x1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1x3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1x5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1x10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3x10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5x10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10x10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10x12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10x14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10x16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10x18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10x20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20x20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22x30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24x30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26x30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28x30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30x30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$16:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.67047559908703702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50472552967617001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34427993664626799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13770300713796699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6645597010319995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3713795439174103E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5568218886024601E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6626770874275901E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4061399026945301E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.30849858304575E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.52788968805919E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.00907683247202E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1249597413118003E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8635026125224902E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7753230309756202E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2232665667619401E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7538881482168801E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6874291914291098E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E810-4C48-AE47-24E5F152B5D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dispertion des poids</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$B$15:$S$15</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1x1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1x3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1x5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1x10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3x10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5x10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10x10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10x12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10x14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10x16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10x18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10x20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20x20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22x30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24x30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26x30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28x30</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30x30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$17:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18254378416182199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45807205057792499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70736677515449997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70174766275226297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72909214358659802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82832048028614402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88316386333825403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88286596264202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89188735009276199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.86570530800269696</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91673761490030703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90882971504413301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.91539262031636903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93383014487823301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89348383720430902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93268401968938697</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95304436277364402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E810-4C48-AE47-24E5F152B5D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="177345695"/>
+        <c:axId val="177318335"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="177345695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>taille et de la forme de l'image</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177318335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="177318335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>EQV et Dispertion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177345695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1855,6 +3457,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
@@ -2931,19 +4613,1106 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2971,16 +5740,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>493537</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30777</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>224036</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>106977</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3000,6 +5769,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>51089</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Graphique 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1C6E4C-C2A7-6BBE-7B13-3BD883DCD195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>416618</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>153200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>511069</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Graphique 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B1AEA5-0961-633D-B904-F69E7D918140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3273,8 +6114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:BF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="Y9" sqref="A7:Y9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3285,180 +6126,180 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.05</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>0.15</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.2</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.3</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>0.4</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>0.5</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>0.75</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>1</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>1.5</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>2</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>2.5</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>3</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>3.5</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>4</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>4.5</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>0.36234922414814702</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>1.8477407905003799E-2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>2.9328149649470302E-2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>1.7902968123878499E-2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>2.0617921120612899E-2</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>2.8144746241568101E-2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>2.0283647589509599E-2</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>1.95624466843171E-2</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>1.6106949899477901E-2</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <v>2.1254946666564599E-2</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="7">
         <v>5.2958366547393602E-2</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="7">
         <v>3.98306667412517E-2</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="7">
         <v>5.0459342473092597E-2</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="7">
         <f>0.0340743075303521</f>
         <v>3.4074307530352101E-2</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="7">
         <v>4.1179602634450099E-2</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="7">
         <v>2.9099293564783399E-2</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="7">
         <v>4.4181338743711399E-2</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="7">
         <v>6.0101272603236902E-2</v>
       </c>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>0.49529382277133699</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>0.86243673536501797</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>0.78968664974806801</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>0.89642082058161099</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>0.89280185589811101</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>0.78697708320517901</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>0.91371519075473795</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>0.92743137403602305</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>0.98023211049807002</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="7">
         <v>0.899631166747483</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="7">
         <v>0.81692569915628599</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="7">
         <v>0.943390176449317</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="7">
         <v>1.1000743171012299</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="7">
         <v>1.21819023464026</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="7">
         <v>1.3120300842160499</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="Q5" s="7">
         <v>2.0613900763360502</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="7">
         <v>3.3278942461218701</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="7">
         <v>4.9709583200908698</v>
       </c>
     </row>
@@ -3467,79 +6308,79 @@
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>0.5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1.4</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1.5</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>3</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>4</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>5</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>6</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>7</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>8</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>9</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>10</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="4">
         <v>11</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>12</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>14</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="4">
         <v>16</v>
       </c>
-      <c r="S7" s="5">
+      <c r="S7" s="4">
         <v>18</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="4">
         <v>20</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="4">
         <v>22</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="4">
         <v>24</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="4">
         <v>26</v>
       </c>
-      <c r="X7" s="5">
+      <c r="X7" s="4">
         <v>28</v>
       </c>
-      <c r="Y7" s="5">
+      <c r="Y7" s="4">
         <v>30</v>
       </c>
       <c r="Z7" s="3"/>
@@ -3577,365 +6418,516 @@
       <c r="BF7" s="3"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>9.9957675833728301E-3</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>1.45654145982835E-2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>1.8346056677280599E-2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>2.8960542745909E-2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>3.2558655606655502E-2</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>6.7747877292405403E-2</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>0.13938736472077501</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>0.23572698341036599</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <v>0.30048805587261102</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>0.36480978360398902</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <v>0.434916214802404</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>0.45599103301322302</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <v>0.50402731791810296</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>0.51672878353611196</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <v>0.57194998083691295</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <v>0.59635774854495804</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <v>0.64739729748793695</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>0.62683803995077103</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>0.63707265283079495</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5">
         <v>0.64769686974132801</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <v>0.67280749805679496</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="5">
         <v>0.68147789637410905</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="5">
         <v>0.68569072084709803</v>
       </c>
-      <c r="Y8" s="6">
+      <c r="Y8" s="5">
         <v>0.67932841892315399</v>
       </c>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>0.88093848189719604</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>0.87366965391755202</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>0.86919940513597405</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>0.80898365799483896</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>0.81391117177977801</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>0.68194527168873298</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>0.49914409639051299</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>0.35000375614914297</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>0.28144942768328701</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>0.213324070826858</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>0.17239169248715799</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>0.15072350142067201</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>0.109015630071942</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>0.100222119808897</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <v>8.3686146928553404E-2</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="5">
         <v>5.4761256273466098E-2</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="5">
         <v>4.62581743901209E-2</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>3.9164037276222502E-2</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>2.88589425339453E-2</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <v>2.77524649211075E-2</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="5">
         <v>2.0015448198627599E-2</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="5">
         <v>1.6226342141500202E-2</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="5">
         <v>1.4681558729526501E-2</v>
       </c>
-      <c r="Y9" s="6">
+      <c r="Y9" s="5">
         <v>1.16313312282497E-2</v>
       </c>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
-      <c r="BF9" s="4"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>25</v>
+      </c>
+      <c r="G11" s="4">
+        <v>50</v>
+      </c>
+      <c r="H11" s="4">
+        <v>100</v>
+      </c>
+      <c r="I11" s="8">
+        <v>250</v>
+      </c>
+      <c r="J11" s="9">
+        <v>500</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2500</v>
+      </c>
+      <c r="M11" s="9">
+        <v>5000</v>
+      </c>
+      <c r="N11" s="9">
+        <v>10000</v>
+      </c>
+      <c r="O11" s="9">
+        <v>25000</v>
+      </c>
+      <c r="P11" s="9">
+        <v>50000</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>100000</v>
+      </c>
+      <c r="R11" s="9">
+        <v>250000</v>
+      </c>
+      <c r="S11" s="9">
+        <v>500000</v>
+      </c>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6"/>
+      <c r="B12" s="5">
+        <v>0.358245894574654</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.36266288179193401</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.31359309850503297</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.28336962852257203</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.22137428613290899</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.15768035947044301</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.101478492506121</v>
+      </c>
+      <c r="I12" s="5">
+        <v>5.4103107372958703E-2</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3.4180275679213598E-2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>2.5140520055540599E-2</v>
+      </c>
+      <c r="L12" s="5">
+        <v>2.0176012223308899E-2</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1.9478491124269599E-2</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1.77499277715466E-2</v>
+      </c>
+      <c r="O12" s="5">
+        <v>2.0122619906068999E-2</v>
+      </c>
+      <c r="P12" s="5">
+        <v>2.0630281992031398E-2</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1.9492152782787799E-2</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1.9406723799536101E-2</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1.8521934336465099E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
+      <c r="B13" s="5">
+        <v>0.50578766019541699</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.49890742864283699</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.49379311287175398</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.48131432680952502</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.47704374264084898</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.52763263935586302</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.59577422798054003</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.71416051773008704</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.78250750115744605</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.83307000820657995</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.86841469847769603</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.87121576500210196</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.88764925482276802</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.86244201889889904</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.85139479671332596</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.86514277902129799</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.858080597660422</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0.874661928932573</v>
+      </c>
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
+      <c r="B16" s="5">
+        <v>0.67047559908703702</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.50472552967617001</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.34427993664626799</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.13770300713796699</v>
+      </c>
+      <c r="F16" s="5">
+        <v>9.6645597010319995E-2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>6.3713795439174103E-2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2.5568218886024601E-2</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1.6626770874275901E-2</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1.4061399026945301E-2</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1.30849858304575E-2</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1.52788968805919E-2</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1.00907683247202E-2</v>
+      </c>
+      <c r="N16" s="5">
+        <v>5.1249597413118003E-3</v>
+      </c>
+      <c r="O16" s="5">
+        <v>2.8635026125224902E-3</v>
+      </c>
+      <c r="P16" s="5">
+        <v>2.7753230309756202E-3</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>3.2232665667619401E-3</v>
+      </c>
+      <c r="R16" s="5">
+        <v>2.7538881482168801E-3</v>
+      </c>
+      <c r="S16" s="5">
+        <v>2.6874291914291098E-3</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.18254378416182199</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.45807205057792499</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.70736677515449997</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.70174766275226297</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.72909214358659802</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.82832048028614402</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.88316386333825403</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.88286596264202</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.89188735009276199</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.86570530800269696</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.91673761490030703</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.90882971504413301</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.91539262031636903</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.93383014487823301</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0.89348383720430902</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.93268401968938697</v>
+      </c>
+      <c r="S17" s="5">
+        <v>0.95304436277364402</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/courbe.xlsx
+++ b/courbe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasse\Desktop\cours\4A\IA\POLYTECH-RESAUX-DE-NEURONES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasse\Desktop\cours\info\4A\IA\TP\LEFORT\POLYTECH-RESEAUX-DE-NEURONES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8DDBEA-0E33-460C-828B-F3AB63EF1F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BA21C1-DF94-48CD-A512-157269A7FCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>σ</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>20x20</t>
+  </si>
+  <si>
+    <t>numéro du jeu de données</t>
   </si>
 </sst>
 </file>
@@ -5812,16 +5815,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>416618</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>153200</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>214912</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123319</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>511069</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38900</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>466245</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9019</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6112,20 +6115,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:BF17"/>
+  <dimension ref="A3:BF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="1" customWidth="1"/>
-    <col min="2" max="19" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="33.54296875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6184,7 +6189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -6244,7 +6249,7 @@
         <v>6.0101272603236902E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -6303,11 +6308,11 @@
         <v>4.9709583200908698</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -6417,7 +6422,7 @@
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -6494,7 +6499,7 @@
         <v>0.67932841892315399</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
@@ -6571,7 +6576,7 @@
         <v>1.16313312282497E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -6630,7 +6635,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -6689,7 +6694,7 @@
         <v>1.8521934336465099E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -6748,7 +6753,7 @@
         <v>0.874661928932573</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -6807,7 +6812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
@@ -6866,7 +6871,7 @@
         <v>2.6874291914291098E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
@@ -6923,6 +6928,48 @@
       </c>
       <c r="S17" s="5">
         <v>0.95304436277364402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1.9538320142964302E-2</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1.9072294145146901E-2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1.4898156641170401E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.87805173931989799</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.80440238596855596</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.78550866556966203</v>
       </c>
     </row>
   </sheetData>

--- a/courbe.xlsx
+++ b/courbe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasse\Desktop\cours\info\4A\IA\TP\LEFORT\POLYTECH-RESEAUX-DE-NEURONES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasse\Desktop\cours\4A\IA\POLYTECH-RESEAUX-DE-NEURONES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BA21C1-DF94-48CD-A512-157269A7FCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3FDE15-720C-442E-B679-71A86132EDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -6118,19 +6118,19 @@
   <dimension ref="A3:BF21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="J20" sqref="J19:J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.54296875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="19" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="33.5703125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="19" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v>6.0101272603236902E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -6308,11 +6308,11 @@
         <v>4.9709583200908698</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>0.67932841892315399</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>1.16313312282497E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
@@ -6694,7 +6694,7 @@
         <v>1.8521934336465099E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>0.874661928932573</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>2.6874291914291098E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>2</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>0.95304436277364402</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
@@ -6943,8 +6943,11 @@
       <c r="D19" s="4">
         <v>3</v>
       </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
@@ -6957,8 +6960,11 @@
       <c r="D20" s="5">
         <v>1.4898156641170401E-2</v>
       </c>
+      <c r="E20" s="5">
+        <v>8.49165538769555E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>2</v>
       </c>
@@ -6970,6 +6976,9 @@
       </c>
       <c r="D21" s="5">
         <v>0.78550866556966203</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.59740322873909302</v>
       </c>
     </row>
   </sheetData>
